--- a/project/excel/minimal_metab.xlsx
+++ b/project/excel/minimal_metab.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,25 +462,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_input</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_output</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>description</t>
         </is>

--- a/project/excel/minimal_metab.xlsx
+++ b/project/excel/minimal_metab.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="SampleOperations" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SampleOperationsCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AttributeValue" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="QuantityValue" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SampleOperationsCollection" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -498,6 +500,68 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>has_raw_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_numeric_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_raw_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>entries</t>
         </is>
       </c>
